--- a/PL/ExcelCargaMasiva/CargaMasiva-20220923170523.xlsx
+++ b/PL/ExcelCargaMasiva/CargaMasiva-20220923170523.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\digis\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A376B49F-0414-4648-ADB9-DEBB371A5F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="885" windowWidth="13650" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="885" windowWidth="13650" windowHeight="7275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -88,12 +82,15 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,7 +141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -186,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,26 +216,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,23 +251,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,14 +426,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -519,6 +482,9 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -557,6 +523,9 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
@@ -594,6 +563,9 @@
       </c>
       <c r="B4" t="s">
         <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>36255</v>
@@ -629,24 +601,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
